--- a/projectTwo/Zadatak.xlsx
+++ b/projectTwo/Zadatak.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://lamaoffice-my.sharepoint.com/personal/toni_biuk_lama_hr/Documents/Radna površina/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivoda\Desktop\ZF\7. SEMESTAR\Praksa\LamaPraksa\projectTwo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F4A41FB7-F368-4E3E-AABE-E0E54D597622}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88AF18D-8AE3-455E-9B85-8B0C7AD64A0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="15" r:id="rId1"/>
@@ -700,6 +700,67 @@
     </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,12 +785,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -739,64 +794,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalno" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1168,101 +1168,101 @@
   </sheetPr>
   <dimension ref="A5:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17:N25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.7109375" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" customWidth="1"/>
-    <col min="3" max="4" width="21.85546875" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="8.5703125" customWidth="1"/>
-    <col min="7" max="7" width="7.85546875" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.85546875" customWidth="1"/>
+    <col min="1" max="1" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="4" width="21.88671875" customWidth="1"/>
+    <col min="5" max="5" width="6.88671875" customWidth="1"/>
+    <col min="6" max="6" width="8.5546875" customWidth="1"/>
+    <col min="7" max="7" width="7.88671875" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="59" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="60"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
-      <c r="B7" s="60"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
-      <c r="G7" s="60"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="60"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
-      <c r="B8" s="60"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="60"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-      <c r="H9" s="60"/>
-      <c r="I9" s="60"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="60"/>
-      <c r="B10" s="60"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60"/>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-    </row>
-    <row r="11" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="61"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="61"/>
-      <c r="H11" s="61"/>
-      <c r="I11" s="61"/>
-    </row>
-    <row r="12" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="37"/>
+      <c r="I8" s="37"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+    </row>
+    <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+    </row>
+    <row r="12" spans="1:14" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="52"/>
       <c r="C12" s="3" t="s">
         <v>0</v>
       </c>
@@ -1278,24 +1278,24 @@
       <c r="G12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H12" s="30" t="s">
+      <c r="H12" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I12" s="31"/>
+      <c r="I12" s="52"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
       <c r="N12" s="4"/>
     </row>
-    <row r="13" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="32" t="s">
+    <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="B13" s="33"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="D13" s="30" t="s">
         <v>2</v>
       </c>
       <c r="E13" s="6" t="s">
@@ -1307,53 +1307,53 @@
       <c r="G13" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="34" t="s">
+      <c r="H13" s="55" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="35"/>
-    </row>
-    <row r="14" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:14" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C15" s="38" t="s">
+      <c r="C15" s="39" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="38" t="s">
+      <c r="D15" s="39" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="30" t="s">
+      <c r="E15" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="42"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="38" t="s">
+      <c r="F15" s="61"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="I15" s="38" t="s">
+      <c r="I15" s="39" t="s">
         <v>18</v>
       </c>
-      <c r="J15" s="38" t="s">
+      <c r="J15" s="39" t="s">
         <v>19</v>
       </c>
-      <c r="K15" s="43" t="s">
+      <c r="K15" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="L15" s="44"/>
-      <c r="M15" s="45"/>
-      <c r="N15" s="46" t="s">
+      <c r="L15" s="42"/>
+      <c r="M15" s="43"/>
+      <c r="N15" s="44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="37"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="40"/>
-      <c r="D16" s="41"/>
+    <row r="16" spans="1:14" ht="70.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="58"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1363,9 +1363,9 @@
       <c r="G16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="H16" s="39"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="39"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="60"/>
+      <c r="J16" s="40"/>
       <c r="K16" s="9" t="s">
         <v>22</v>
       </c>
@@ -1375,9 +1375,9 @@
       <c r="M16" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N16" s="47"/>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N16" s="45"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>1</v>
       </c>
@@ -1402,24 +1402,24 @@
       <c r="H17" s="14"/>
       <c r="I17" s="15"/>
       <c r="J17" s="15"/>
-      <c r="K17" s="54">
+      <c r="K17" s="31">
         <f>(E17*H17)</f>
         <v>0</v>
       </c>
-      <c r="L17" s="54">
+      <c r="L17" s="31">
         <f>(F17*I17)</f>
         <v>0</v>
       </c>
-      <c r="M17" s="54">
+      <c r="M17" s="31">
         <f>(G17*J17)</f>
         <v>0</v>
       </c>
-      <c r="N17" s="55">
+      <c r="N17" s="32">
         <f>SUM(K17:M17)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="16">
         <v>2</v>
       </c>
@@ -1444,24 +1444,24 @@
       <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
-      <c r="K18" s="54">
+      <c r="K18" s="31">
         <f t="shared" ref="K18:M24" si="0">(E18*H18)</f>
         <v>0</v>
       </c>
-      <c r="L18" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M18" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N18" s="55">
+      <c r="L18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M18" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N18" s="32">
         <f t="shared" ref="N18:N24" si="1">SUM(K18:M18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="16">
         <v>3</v>
       </c>
@@ -1486,24 +1486,24 @@
       <c r="H19" s="21"/>
       <c r="I19" s="22"/>
       <c r="J19" s="22"/>
-      <c r="K19" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L19" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M19" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N19" s="55">
+      <c r="K19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M19" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N19" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>4</v>
       </c>
@@ -1522,24 +1522,24 @@
       <c r="H20" s="21"/>
       <c r="I20" s="22"/>
       <c r="J20" s="22"/>
-      <c r="K20" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L20" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M20" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N20" s="55">
+      <c r="K20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M20" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N20" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="16">
         <v>5</v>
       </c>
@@ -1552,24 +1552,24 @@
       <c r="H21" s="21"/>
       <c r="I21" s="22"/>
       <c r="J21" s="22"/>
-      <c r="K21" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L21" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M21" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N21" s="55">
+      <c r="K21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M21" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N21" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="16">
         <v>6</v>
       </c>
@@ -1582,24 +1582,24 @@
       <c r="H22" s="21"/>
       <c r="I22" s="22"/>
       <c r="J22" s="22"/>
-      <c r="K22" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L22" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M22" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N22" s="55">
+      <c r="K22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M22" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N22" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="10">
         <v>7</v>
       </c>
@@ -1612,24 +1612,24 @@
       <c r="H23" s="21"/>
       <c r="I23" s="22"/>
       <c r="J23" s="22"/>
-      <c r="K23" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L23" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M23" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N23" s="55">
+      <c r="K23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M23" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N23" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="16">
         <v>8</v>
       </c>
@@ -1642,63 +1642,63 @@
       <c r="H24" s="21"/>
       <c r="I24" s="22"/>
       <c r="J24" s="22"/>
-      <c r="K24" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L24" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M24" s="54">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N24" s="55">
+      <c r="K24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M24" s="31">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N24" s="32">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+    <row r="25" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="26"/>
-      <c r="E25" s="58">
+      <c r="E25" s="35">
         <f>SUM(E17:E24)</f>
         <v>0</v>
       </c>
-      <c r="F25" s="58">
+      <c r="F25" s="35">
         <f>SUM(F17:F24)</f>
         <v>0</v>
       </c>
-      <c r="G25" s="58">
+      <c r="G25" s="35">
         <f>SUM(G17:G24)</f>
         <v>0</v>
       </c>
       <c r="H25" s="27"/>
       <c r="I25" s="28"/>
       <c r="J25" s="28"/>
-      <c r="K25" s="56">
+      <c r="K25" s="33">
         <f>SUM(K17:K24)</f>
         <v>0</v>
       </c>
-      <c r="L25" s="56">
+      <c r="L25" s="33">
         <f>SUM(L17:L24)</f>
         <v>0</v>
       </c>
-      <c r="M25" s="56">
+      <c r="M25" s="33">
         <f>SUM(M17:M24)</f>
         <v>0</v>
       </c>
-      <c r="N25" s="57">
+      <c r="N25" s="34">
         <f>SUM(N17:N24)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B27" s="29"/>
       <c r="C27" s="29"/>
       <c r="D27" s="29"/>
@@ -1714,45 +1714,40 @@
       <c r="N27" s="29"/>
       <c r="O27" s="29"/>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="52" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="B28" s="53"/>
-      <c r="C28" s="53"/>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="53"/>
-      <c r="B29" s="53"/>
-      <c r="C29" s="53"/>
-    </row>
-    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="52" t="s">
+      <c r="B28" s="50"/>
+      <c r="C28" s="50"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="50"/>
+      <c r="C29" s="50"/>
+    </row>
+    <row r="34" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B34" s="53"/>
-      <c r="C34" s="53"/>
-      <c r="J34" s="52" t="s">
+      <c r="B34" s="50"/>
+      <c r="C34" s="50"/>
+      <c r="J34" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="53"/>
-      <c r="L34" s="53"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A35" s="53"/>
-      <c r="B35" s="53"/>
-      <c r="C35" s="53"/>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="53"/>
+      <c r="K34" s="50"/>
+      <c r="L34" s="50"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A35" s="50"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="50"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="50"/>
+      <c r="L35" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A6:I11"/>
-    <mergeCell ref="J15:J16"/>
-    <mergeCell ref="K15:M15"/>
-    <mergeCell ref="N15:N16"/>
-    <mergeCell ref="A25:C25"/>
     <mergeCell ref="J34:L35"/>
     <mergeCell ref="A34:C35"/>
     <mergeCell ref="A28:C29"/>
@@ -1767,6 +1762,11 @@
     <mergeCell ref="E15:G15"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="I15:I16"/>
+    <mergeCell ref="A6:I11"/>
+    <mergeCell ref="J15:J16"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="N15:N16"/>
+    <mergeCell ref="A25:C25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="81" fitToHeight="0" orientation="landscape" r:id="rId1"/>
